--- a/consumption_tables/Total energy consumption._              Billion Btu/Fossil fuels, total consumption._                     Billion Btu.xlsx
+++ b/consumption_tables/Total energy consumption._              Billion Btu/Fossil fuels, total consumption._                     Billion Btu.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="212">
   <si>
     <t>StateCode</t>
   </si>
@@ -56,151 +56,601 @@
     <t>AL</t>
   </si>
   <si>
+    <t>85.1150467025429%</t>
+  </si>
+  <si>
+    <t>89.75889197453444%</t>
+  </si>
+  <si>
+    <t>4.6438452719915375%</t>
+  </si>
+  <si>
     <t>AR</t>
   </si>
   <si>
+    <t>83.32860155506096%</t>
+  </si>
+  <si>
+    <t>79.47185320349938%</t>
+  </si>
+  <si>
+    <t>-3.8567483515615777%</t>
+  </si>
+  <si>
     <t>AZ</t>
   </si>
   <si>
+    <t>87.49434184922745%</t>
+  </si>
+  <si>
+    <t>87.37303479567153%</t>
+  </si>
+  <si>
+    <t>-0.12130705355592397%</t>
+  </si>
+  <si>
     <t>CA</t>
   </si>
   <si>
+    <t>76.46230017538926%</t>
+  </si>
+  <si>
+    <t>75.22930198506059%</t>
+  </si>
+  <si>
+    <t>-1.2329981903286722%</t>
+  </si>
+  <si>
     <t>CO</t>
   </si>
   <si>
+    <t>96.06972576191538%</t>
+  </si>
+  <si>
+    <t>87.70864198531712%</t>
+  </si>
+  <si>
+    <t>-8.361083776598264%</t>
+  </si>
+  <si>
     <t>CT</t>
   </si>
   <si>
+    <t>76.38962103906753%</t>
+  </si>
+  <si>
+    <t>77.44630801940389%</t>
+  </si>
+  <si>
+    <t>1.0566869803363517%</t>
+  </si>
+  <si>
     <t>DE</t>
   </si>
   <si>
+    <t>91.85809805671693%</t>
+  </si>
+  <si>
+    <t>78.16844414869702%</t>
+  </si>
+  <si>
+    <t>-13.689653908019906%</t>
+  </si>
+  <si>
     <t>FL</t>
   </si>
   <si>
+    <t>77.50869513136651%</t>
+  </si>
+  <si>
+    <t>81.44487050577658%</t>
+  </si>
+  <si>
+    <t>3.9361753744100696%</t>
+  </si>
+  <si>
     <t>GA</t>
   </si>
   <si>
+    <t>82.92628342262778%</t>
+  </si>
+  <si>
+    <t>69.66115510013972%</t>
+  </si>
+  <si>
+    <t>-13.265128322488053%</t>
+  </si>
+  <si>
     <t>HI</t>
   </si>
   <si>
+    <t>91.30828415069332%</t>
+  </si>
+  <si>
+    <t>89.79172715620109%</t>
+  </si>
+  <si>
+    <t>-1.516556994492234%</t>
+  </si>
+  <si>
     <t>IA</t>
   </si>
   <si>
+    <t>85.85155903923474%</t>
+  </si>
+  <si>
+    <t>71.50849611988225%</t>
+  </si>
+  <si>
+    <t>-14.34306291935249%</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
+    <t>43.661294380559134%</t>
+  </si>
+  <si>
+    <t>54.226556793671556%</t>
+  </si>
+  <si>
+    <t>10.565262413112421%</t>
+  </si>
+  <si>
     <t>IL</t>
   </si>
   <si>
+    <t>78.24239251083792%</t>
+  </si>
+  <si>
+    <t>79.50194534765164%</t>
+  </si>
+  <si>
+    <t>1.2595528368137252%</t>
+  </si>
+  <si>
     <t>IN</t>
   </si>
   <si>
+    <t>105.69477617419626%</t>
+  </si>
+  <si>
+    <t>88.5741719180977%</t>
+  </si>
+  <si>
+    <t>-17.12060425609856%</t>
+  </si>
+  <si>
     <t>KS</t>
   </si>
   <si>
+    <t>96.12529361295132%</t>
+  </si>
+  <si>
+    <t>81.14491456461158%</t>
+  </si>
+  <si>
+    <t>-14.980379048339742%</t>
+  </si>
+  <si>
     <t>KY</t>
   </si>
   <si>
+    <t>102.352606605264%</t>
+  </si>
+  <si>
+    <t>96.30177411914161%</t>
+  </si>
+  <si>
+    <t>-6.050832486122388%</t>
+  </si>
+  <si>
     <t>LA</t>
   </si>
   <si>
+    <t>90.20514416800512%</t>
+  </si>
+  <si>
+    <t>90.25860680391969%</t>
+  </si>
+  <si>
+    <t>0.053462635914570455%</t>
+  </si>
+  <si>
     <t>MA</t>
   </si>
   <si>
+    <t>84.85906732952243%</t>
+  </si>
+  <si>
+    <t>72.15873659644298%</t>
+  </si>
+  <si>
+    <t>-12.700330733079454%</t>
+  </si>
+  <si>
     <t>MD</t>
   </si>
   <si>
+    <t>76.67070932498639%</t>
+  </si>
+  <si>
+    <t>61.85166342019027%</t>
+  </si>
+  <si>
+    <t>-14.81904590479612%</t>
+  </si>
+  <si>
     <t>ME</t>
   </si>
   <si>
+    <t>57.39909725502545%</t>
+  </si>
+  <si>
+    <t>62.44117451294099%</t>
+  </si>
+  <si>
+    <t>5.042077257915537%</t>
+  </si>
+  <si>
     <t>MI</t>
   </si>
   <si>
+    <t>88.37304943761663%</t>
+  </si>
+  <si>
+    <t>84.30891235941414%</t>
+  </si>
+  <si>
+    <t>-4.064137078202492%</t>
+  </si>
+  <si>
     <t>MN</t>
   </si>
   <si>
+    <t>79.97179185932475%</t>
+  </si>
+  <si>
+    <t>72.77923703939328%</t>
+  </si>
+  <si>
+    <t>-7.192554819931473%</t>
+  </si>
+  <si>
     <t>MO</t>
   </si>
   <si>
+    <t>92.18148656900715%</t>
+  </si>
+  <si>
+    <t>86.85897435897436%</t>
+  </si>
+  <si>
+    <t>-5.322512210032784%</t>
+  </si>
+  <si>
     <t>MS</t>
   </si>
   <si>
+    <t>71.95472157246132%</t>
+  </si>
+  <si>
+    <t>91.48884513856395%</t>
+  </si>
+  <si>
+    <t>19.534123566102622%</t>
+  </si>
+  <si>
     <t>MT</t>
   </si>
   <si>
+    <t>102.35735187066071%</t>
+  </si>
+  <si>
+    <t>107.21117736323365%</t>
+  </si>
+  <si>
+    <t>4.853825492572938%</t>
+  </si>
+  <si>
     <t>NC</t>
   </si>
   <si>
+    <t>70.58220315937922%</t>
+  </si>
+  <si>
+    <t>67.90811496842556%</t>
+  </si>
+  <si>
+    <t>-2.674088190953654%</t>
+  </si>
+  <si>
     <t>ND</t>
   </si>
   <si>
+    <t>164.69878592777005%</t>
+  </si>
+  <si>
+    <t>115.32433673544966%</t>
+  </si>
+  <si>
+    <t>-49.374449192320384%</t>
+  </si>
+  <si>
     <t>NE</t>
   </si>
   <si>
+    <t>86.4116855660196%</t>
+  </si>
+  <si>
+    <t>78.86173239200535%</t>
+  </si>
+  <si>
+    <t>-7.549953174014249%</t>
+  </si>
+  <si>
     <t>NH</t>
   </si>
   <si>
+    <t>76.60354078256155%</t>
+  </si>
+  <si>
+    <t>75.94048765784007%</t>
+  </si>
+  <si>
+    <t>-0.6630531247214861%</t>
+  </si>
+  <si>
     <t>NJ</t>
   </si>
   <si>
+    <t>73.775351771201%</t>
+  </si>
+  <si>
+    <t>77.88397103931409%</t>
+  </si>
+  <si>
+    <t>4.108619268113088%</t>
+  </si>
+  <si>
     <t>NM</t>
   </si>
   <si>
+    <t>123.8290923296431%</t>
+  </si>
+  <si>
+    <t>105.66850761667779%</t>
+  </si>
+  <si>
+    <t>-18.160584712965317%</t>
+  </si>
+  <si>
     <t>NV</t>
   </si>
   <si>
+    <t>99.48967440383451%</t>
+  </si>
+  <si>
+    <t>87.71034181218035%</t>
+  </si>
+  <si>
+    <t>-11.779332591654168%</t>
+  </si>
+  <si>
     <t>NY</t>
   </si>
   <si>
+    <t>81.12474645111878%</t>
+  </si>
+  <si>
+    <t>73.56645452026488%</t>
+  </si>
+  <si>
+    <t>-7.558291930853898%</t>
+  </si>
+  <si>
     <t>OH</t>
   </si>
   <si>
+    <t>87.23783604880963%</t>
+  </si>
+  <si>
+    <t>80.98697968668593%</t>
+  </si>
+  <si>
+    <t>-6.250856362123699%</t>
+  </si>
+  <si>
     <t>OK</t>
   </si>
   <si>
+    <t>96.74113873933811%</t>
+  </si>
+  <si>
+    <t>93.61396064677136%</t>
+  </si>
+  <si>
+    <t>-3.1271780925667514%</t>
+  </si>
+  <si>
     <t>OR</t>
   </si>
   <si>
+    <t>48.42066416137461%</t>
+  </si>
+  <si>
+    <t>62.42740610353176%</t>
+  </si>
+  <si>
+    <t>14.006741942157149%</t>
+  </si>
+  <si>
     <t>PA</t>
   </si>
   <si>
+    <t>95.20197839322655%</t>
+  </si>
+  <si>
+    <t>87.53559958014782%</t>
+  </si>
+  <si>
+    <t>-7.666378813078737%</t>
+  </si>
+  <si>
     <t>RI</t>
   </si>
   <si>
+    <t>68.19694789991819%</t>
+  </si>
+  <si>
+    <t>90.59369788120121%</t>
+  </si>
+  <si>
+    <t>22.396749981283023%</t>
+  </si>
+  <si>
     <t>SC</t>
   </si>
   <si>
+    <t>64.21623470558472%</t>
+  </si>
+  <si>
+    <t>62.70552166591447%</t>
+  </si>
+  <si>
+    <t>-1.5107130396702573%</t>
+  </si>
+  <si>
     <t>SD</t>
   </si>
   <si>
+    <t>77.72230300576119%</t>
+  </si>
+  <si>
+    <t>56.819183361625456%</t>
+  </si>
+  <si>
+    <t>-20.903119644135735%</t>
+  </si>
+  <si>
     <t>TN</t>
   </si>
   <si>
+    <t>77.08150813429596%</t>
+  </si>
+  <si>
+    <t>63.592919243424994%</t>
+  </si>
+  <si>
+    <t>-13.488588890870965%</t>
+  </si>
+  <si>
     <t>TX</t>
   </si>
   <si>
+    <t>97.05385095568312%</t>
+  </si>
+  <si>
+    <t>91.41594250778459%</t>
+  </si>
+  <si>
+    <t>-5.637908447898525%</t>
+  </si>
+  <si>
     <t>UT</t>
   </si>
   <si>
+    <t>128.2134972576639%</t>
+  </si>
+  <si>
+    <t>107.1214291403136%</t>
+  </si>
+  <si>
+    <t>-21.09206811735031%</t>
+  </si>
+  <si>
     <t>VA</t>
   </si>
   <si>
+    <t>66.18873820265287%</t>
+  </si>
+  <si>
+    <t>64.57100332432458%</t>
+  </si>
+  <si>
+    <t>-1.6177348783282923%</t>
+  </si>
+  <si>
     <t>VT</t>
   </si>
   <si>
+    <t>62.547166819925806%</t>
+  </si>
+  <si>
+    <t>71.39166666666667%</t>
+  </si>
+  <si>
+    <t>8.84449984674086%</t>
+  </si>
+  <si>
     <t>WA</t>
   </si>
   <si>
+    <t>49.66040077594758%</t>
+  </si>
+  <si>
+    <t>56.90642800169383%</t>
+  </si>
+  <si>
+    <t>7.2460272257462535%</t>
+  </si>
+  <si>
     <t>WI</t>
   </si>
   <si>
+    <t>79.77130418442759%</t>
+  </si>
+  <si>
+    <t>79.66919005104195%</t>
+  </si>
+  <si>
+    <t>-0.10211413338564057%</t>
+  </si>
+  <si>
     <t>WV</t>
   </si>
   <si>
+    <t>171.7854273653492%</t>
+  </si>
+  <si>
+    <t>143.5220637102134%</t>
+  </si>
+  <si>
+    <t>-28.263363655135805%</t>
+  </si>
+  <si>
     <t>WY</t>
   </si>
   <si>
+    <t>171.24184151956158%</t>
+  </si>
+  <si>
+    <t>151.65476554146937%</t>
+  </si>
+  <si>
+    <t>-19.5870759780922%</t>
+  </si>
+  <si>
     <t>US</t>
+  </si>
+  <si>
+    <t>85.61744746006698%</t>
+  </si>
+  <si>
+    <t>81.679838147514%</t>
+  </si>
+  <si>
+    <t>-3.937609312552979%</t>
   </si>
 </sst>
 </file>
@@ -631,14 +1081,14 @@
       <c r="G2" s="2" t="n">
         <v>4854000</v>
       </c>
-      <c r="H2" s="2" t="n">
-        <v>0.851150467025429</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>0.8975889197453444</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>0.04643845271991542</v>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="K2" s="2" t="n">
         <v>0.3500311111111111</v>
@@ -655,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>713222</v>
@@ -672,14 +1122,14 @@
       <c r="G3" s="2" t="n">
         <v>2978000</v>
       </c>
-      <c r="H3" s="2" t="n">
-        <v>0.8332860155506095</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>0.7947185320349938</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>-0.03856748351561579</v>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="K3" s="2" t="n">
         <v>0.3025973695375477</v>
@@ -696,7 +1146,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>821494</v>
@@ -713,14 +1163,14 @@
       <c r="G4" s="2" t="n">
         <v>6818000</v>
       </c>
-      <c r="H4" s="2" t="n">
-        <v>0.8749434184922745</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>0.8737303479567153</v>
-      </c>
-      <c r="J4" s="3" t="n">
-        <v>-0.001213070535559191</v>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="K4" s="2" t="n">
         <v>0.2229896851248643</v>
@@ -737,7 +1187,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>5692736</v>
@@ -754,14 +1204,14 @@
       <c r="G5" s="2" t="n">
         <v>38994000</v>
       </c>
-      <c r="H5" s="2" t="n">
-        <v>0.7646230017538925</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>0.7522930198506059</v>
-      </c>
-      <c r="J5" s="3" t="n">
-        <v>-0.0123299819032866</v>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="K5" s="2" t="n">
         <v>0.190011214953271</v>
@@ -778,7 +1228,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>896246</v>
@@ -795,14 +1245,14 @@
       <c r="G6" s="2" t="n">
         <v>5449000</v>
       </c>
-      <c r="H6" s="2" t="n">
-        <v>0.9606972576191538</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>0.8770864198531712</v>
-      </c>
-      <c r="J6" s="3" t="n">
-        <v>-0.08361083776598266</v>
+      <c r="H6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="K6" s="2" t="n">
         <v>0.2709328899637243</v>
@@ -819,7 +1269,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>586890</v>
@@ -836,14 +1286,14 @@
       <c r="G7" s="2" t="n">
         <v>3585000</v>
       </c>
-      <c r="H7" s="2" t="n">
-        <v>0.7638962103906753</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>0.7744630801940389</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>0.01056686980336352</v>
+      <c r="H7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="K7" s="2" t="n">
         <v>0.1782776427703524</v>
@@ -860,7 +1310,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>234646</v>
@@ -877,14 +1327,14 @@
       <c r="G8" s="2" t="n">
         <v>944000</v>
       </c>
-      <c r="H8" s="2" t="n">
-        <v>0.9185809805671693</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>0.7816844414869701</v>
-      </c>
-      <c r="J8" s="3" t="n">
-        <v>-0.1368965390801992</v>
+      <c r="H8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K8" s="2" t="n">
         <v>0.3502179104477612</v>
@@ -901,7 +1351,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2542951</v>
@@ -918,14 +1368,14 @@
       <c r="G9" s="2" t="n">
         <v>20245000</v>
       </c>
-      <c r="H9" s="2" t="n">
-        <v>0.7750869513136651</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>0.8144487050577658</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>0.03936175374410067</v>
+      <c r="H9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="K9" s="2" t="n">
         <v>0.1951163201104888</v>
@@ -942,7 +1392,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1849009</v>
@@ -959,14 +1409,14 @@
       <c r="G10" s="2" t="n">
         <v>10199000</v>
       </c>
-      <c r="H10" s="2" t="n">
-        <v>0.8292628342262778</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>0.6966115510013973</v>
-      </c>
-      <c r="J10" s="3" t="n">
-        <v>-0.1326512832248805</v>
+      <c r="H10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="K10" s="2" t="n">
         <v>0.2838951328113005</v>
@@ -983,7 +1433,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>293484</v>
@@ -1000,14 +1450,14 @@
       <c r="G11" s="2" t="n">
         <v>1425000</v>
       </c>
-      <c r="H11" s="2" t="n">
-        <v>0.9130828415069333</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>0.897917271562011</v>
-      </c>
-      <c r="J11" s="3" t="n">
-        <v>-0.01516556994492235</v>
+      <c r="H11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="K11" s="2" t="n">
         <v>0.2636873315363881</v>
@@ -1024,7 +1474,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>812045</v>
@@ -1041,14 +1491,14 @@
       <c r="G12" s="2" t="n">
         <v>3122000</v>
       </c>
-      <c r="H12" s="2" t="n">
-        <v>0.8585155903923474</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>0.7150849611988226</v>
-      </c>
-      <c r="J12" s="3" t="n">
-        <v>-0.1434306291935248</v>
+      <c r="H12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="K12" s="2" t="n">
         <v>0.291997482919813</v>
@@ -1065,7 +1515,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>177009</v>
@@ -1082,14 +1532,14 @@
       <c r="G13" s="2" t="n">
         <v>1653000</v>
       </c>
-      <c r="H13" s="2" t="n">
-        <v>0.4366129438055913</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>0.5422655679367155</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>0.1056526241311242</v>
+      <c r="H13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="K13" s="2" t="n">
         <v>0.1749100790513834</v>
@@ -1106,7 +1556,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2801997</v>
@@ -1123,14 +1573,14 @@
       <c r="G14" s="2" t="n">
         <v>12839000</v>
       </c>
-      <c r="H14" s="2" t="n">
-        <v>0.7824239251083792</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>0.7950194534765164</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>0.01259552836813715</v>
+      <c r="H14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="K14" s="2" t="n">
         <v>0.2446517942897058</v>
@@ -1147,7 +1597,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2634344</v>
@@ -1164,14 +1614,14 @@
       <c r="G15" s="2" t="n">
         <v>6613000</v>
       </c>
-      <c r="H15" s="2" t="n">
-        <v>1.056947761741963</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>0.885741719180977</v>
-      </c>
-      <c r="J15" s="3" t="n">
-        <v>-0.1712060425609857</v>
+      <c r="H15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="K15" s="2" t="n">
         <v>0.4739733717164448</v>
@@ -1188,7 +1638,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1025133</v>
@@ -1205,14 +1655,14 @@
       <c r="G16" s="2" t="n">
         <v>2907000</v>
       </c>
-      <c r="H16" s="2" t="n">
-        <v>0.9612529361295132</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>0.8114491456461158</v>
-      </c>
-      <c r="J16" s="3" t="n">
-        <v>-0.1498037904833974</v>
+      <c r="H16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="K16" s="2" t="n">
         <v>0.4131934703748488</v>
@@ -1229,7 +1679,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1497217</v>
@@ -1246,14 +1696,14 @@
       <c r="G17" s="2" t="n">
         <v>4425000</v>
       </c>
-      <c r="H17" s="2" t="n">
-        <v>1.02352606605264</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>0.9630177411914161</v>
-      </c>
-      <c r="J17" s="3" t="n">
-        <v>-0.06050832486122382</v>
+      <c r="H17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="K17" s="2" t="n">
         <v>0.4053105035192204</v>
@@ -1270,7 +1720,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3480395</v>
@@ -1287,14 +1737,14 @@
       <c r="G18" s="2" t="n">
         <v>4669000</v>
       </c>
-      <c r="H18" s="2" t="n">
-        <v>0.9020514416800512</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>0.9025860680391969</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>0.0005346263591456957</v>
+      <c r="H18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="K18" s="2" t="n">
         <v>0.8243474656560872</v>
@@ -1311,7 +1761,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1193833</v>
@@ -1328,14 +1778,14 @@
       <c r="G19" s="2" t="n">
         <v>6784000</v>
       </c>
-      <c r="H19" s="2" t="n">
-        <v>0.8485906732952243</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>0.7215873659644297</v>
-      </c>
-      <c r="J19" s="3" t="n">
-        <v>-0.1270033073307946</v>
+      <c r="H19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="K19" s="2" t="n">
         <v>0.198212352648182</v>
@@ -1352,7 +1802,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>972926</v>
@@ -1369,14 +1819,14 @@
       <c r="G20" s="2" t="n">
         <v>5995000</v>
       </c>
-      <c r="H20" s="2" t="n">
-        <v>0.7667070932498639</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>0.6185166342019027</v>
-      </c>
-      <c r="J20" s="3" t="n">
-        <v>-0.1481904590479611</v>
+      <c r="H20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="K20" s="2" t="n">
         <v>0.2026929166666667</v>
@@ -1393,7 +1843,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>262470</v>
@@ -1410,14 +1860,14 @@
       <c r="G21" s="2" t="n">
         <v>1329000</v>
       </c>
-      <c r="H21" s="2" t="n">
-        <v>0.5739909725502546</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>0.6244117451294099</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>0.05042077257915534</v>
+      <c r="H21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="K21" s="2" t="n">
         <v>0.2130438311688312</v>
@@ -1434,7 +1884,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2539936</v>
@@ -1451,14 +1901,14 @@
       <c r="G22" s="2" t="n">
         <v>9918000</v>
       </c>
-      <c r="H22" s="2" t="n">
-        <v>0.8837304943761662</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>0.8430891235941413</v>
-      </c>
-      <c r="J22" s="3" t="n">
-        <v>-0.0406413707820249</v>
+      <c r="H22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="K22" s="2" t="n">
         <v>0.2727887444957577</v>
@@ -1475,7 +1925,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1120416</v>
@@ -1492,14 +1942,14 @@
       <c r="G23" s="2" t="n">
         <v>5482000</v>
       </c>
-      <c r="H23" s="2" t="n">
-        <v>0.7997179185932475</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>0.7277923703939329</v>
-      </c>
-      <c r="J23" s="3" t="n">
-        <v>-0.07192554819931463</v>
+      <c r="H23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="K23" s="2" t="n">
         <v>0.2552200455580866</v>
@@ -1516,7 +1966,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1367658</v>
@@ -1533,14 +1983,14 @@
       <c r="G24" s="2" t="n">
         <v>6076000</v>
       </c>
-      <c r="H24" s="2" t="n">
-        <v>0.9218148656900714</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>0.8685897435897436</v>
-      </c>
-      <c r="J24" s="3" t="n">
-        <v>-0.05322512210032782</v>
+      <c r="H24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="K24" s="2" t="n">
         <v>0.2666519789432638</v>
@@ -1557,7 +2007,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>740422</v>
@@ -1574,14 +2024,14 @@
       <c r="G25" s="2" t="n">
         <v>2989000</v>
       </c>
-      <c r="H25" s="2" t="n">
-        <v>0.7195472157246132</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>0.9148884513856395</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>0.1953412356610262</v>
+      <c r="H25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="K25" s="2" t="n">
         <v>0.2870965490500194</v>
@@ -1598,7 +2048,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>355744</v>
@@ -1615,14 +2065,14 @@
       <c r="G26" s="2" t="n">
         <v>1032000</v>
       </c>
-      <c r="H26" s="2" t="n">
-        <v>1.023573518706607</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>1.072111773632336</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>0.04853825492572938</v>
+      <c r="H26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="K26" s="2" t="n">
         <v>0.44468</v>
@@ -1639,7 +2089,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1450928</v>
@@ -1656,14 +2106,14 @@
       <c r="G27" s="2" t="n">
         <v>10035000</v>
       </c>
-      <c r="H27" s="2" t="n">
-        <v>0.7058220315937922</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>0.6790811496842557</v>
-      </c>
-      <c r="J27" s="3" t="n">
-        <v>-0.0267408819095365</v>
+      <c r="H27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="K27" s="2" t="n">
         <v>0.2177262905162065</v>
@@ -1680,7 +2130,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>514687</v>
@@ -1697,14 +2147,14 @@
       <c r="G28" s="2" t="n">
         <v>757000</v>
       </c>
-      <c r="H28" s="2" t="n">
-        <v>1.646987859277701</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>1.153243367354497</v>
-      </c>
-      <c r="J28" s="3" t="n">
-        <v>-0.4937444919232039</v>
+      <c r="H28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="K28" s="2" t="n">
         <v>0.8067194357366771</v>
@@ -1721,7 +2171,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>454096</v>
@@ -1738,14 +2188,14 @@
       <c r="G29" s="2" t="n">
         <v>2884000</v>
       </c>
-      <c r="H29" s="2" t="n">
-        <v>0.864116855660196</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>0.7886173239200536</v>
-      </c>
-      <c r="J29" s="3" t="n">
-        <v>-0.07549953174014246</v>
+      <c r="H29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="K29" s="2" t="n">
         <v>0.3719049959049959</v>
@@ -1762,7 +2212,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>204880</v>
@@ -1779,14 +2229,14 @@
       <c r="G30" s="2" t="n">
         <v>1330000</v>
       </c>
-      <c r="H30" s="2" t="n">
-        <v>0.7660354078256155</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>0.7594048765784007</v>
-      </c>
-      <c r="J30" s="3" t="n">
-        <v>-0.006630531247214799</v>
+      <c r="H30" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="K30" s="2" t="n">
         <v>0.1842446043165468</v>
@@ -1803,7 +2253,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1656883</v>
@@ -1820,14 +2270,14 @@
       <c r="G31" s="2" t="n">
         <v>8935000</v>
       </c>
-      <c r="H31" s="2" t="n">
-        <v>0.73775351771201</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>0.7788397103931409</v>
-      </c>
-      <c r="J31" s="2" t="n">
-        <v>0.0410861926811309</v>
+      <c r="H31" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="K31" s="2" t="n">
         <v>0.213433337627206</v>
@@ -1844,7 +2294,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>738565</v>
@@ -1861,14 +2311,14 @@
       <c r="G32" s="2" t="n">
         <v>2080000</v>
       </c>
-      <c r="H32" s="2" t="n">
-        <v>1.238290923296431</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>1.056685076166778</v>
-      </c>
-      <c r="J32" s="3" t="n">
-        <v>-0.1816058471296531</v>
+      <c r="H32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="K32" s="2" t="n">
         <v>0.4852595269382391</v>
@@ -1885,7 +2335,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>401019</v>
@@ -1902,14 +2352,14 @@
       <c r="G33" s="2" t="n">
         <v>1894000</v>
       </c>
-      <c r="H33" s="2" t="n">
-        <v>0.9948967440383452</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>0.8771034181218035</v>
-      </c>
-      <c r="J33" s="3" t="n">
-        <v>-0.1177933259165417</v>
+      <c r="H33" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="K33" s="2" t="n">
         <v>0.2534886219974716</v>
@@ -1926,7 +2376,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3030393</v>
@@ -1943,14 +2393,14 @@
       <c r="G34" s="2" t="n">
         <v>19747000</v>
       </c>
-      <c r="H34" s="2" t="n">
-        <v>0.8112474645111878</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>0.7356645452026489</v>
-      </c>
-      <c r="J34" s="3" t="n">
-        <v>-0.07558291930853889</v>
+      <c r="H34" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="K34" s="2" t="n">
         <v>0.1681589811886133</v>
@@ -1967,7 +2417,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3289505</v>
@@ -1984,14 +2434,14 @@
       <c r="G35" s="2" t="n">
         <v>11605000</v>
       </c>
-      <c r="H35" s="2" t="n">
-        <v>0.8723783604880962</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>0.8098697968668593</v>
-      </c>
-      <c r="J35" s="3" t="n">
-        <v>-0.06250856362123691</v>
+      <c r="H35" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="K35" s="2" t="n">
         <v>0.3027894882179676</v>
@@ -2008,7 +2458,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1337780</v>
@@ -2025,14 +2475,14 @@
       <c r="G36" s="2" t="n">
         <v>3907000</v>
       </c>
-      <c r="H36" s="2" t="n">
-        <v>0.9674113873933811</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>0.9361396064677135</v>
-      </c>
-      <c r="J36" s="3" t="n">
-        <v>-0.03127178092566751</v>
+      <c r="H36" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="K36" s="2" t="n">
         <v>0.4248269291838679</v>
@@ -2049,7 +2499,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>473649</v>
@@ -2066,14 +2516,14 @@
       <c r="G37" s="2" t="n">
         <v>4025000</v>
       </c>
-      <c r="H37" s="2" t="n">
-        <v>0.4842066416137461</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>0.6242740610353176</v>
-      </c>
-      <c r="J37" s="2" t="n">
-        <v>0.1400674194215715</v>
+      <c r="H37" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="K37" s="2" t="n">
         <v>0.1656115384615384</v>
@@ -2090,7 +2540,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3461622</v>
@@ -2107,14 +2557,14 @@
       <c r="G38" s="2" t="n">
         <v>12792000</v>
       </c>
-      <c r="H38" s="2" t="n">
-        <v>0.9520197839322656</v>
-      </c>
-      <c r="I38" s="2" t="n">
-        <v>0.8753559958014782</v>
-      </c>
-      <c r="J38" s="3" t="n">
-        <v>-0.07666378813078745</v>
+      <c r="H38" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="K38" s="2" t="n">
         <v>0.2908192892548097</v>
@@ -2131,7 +2581,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>145059</v>
@@ -2148,14 +2598,14 @@
       <c r="G39" s="2" t="n">
         <v>1056000</v>
       </c>
-      <c r="H39" s="2" t="n">
-        <v>0.6819694789991819</v>
-      </c>
-      <c r="I39" s="2" t="n">
-        <v>0.9059369788120121</v>
-      </c>
-      <c r="J39" s="4" t="n">
-        <v>0.2239674998128302</v>
+      <c r="H39" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="K39" s="2" t="n">
         <v>0.1441938369781312</v>
@@ -2172,7 +2622,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>50</v>
+        <v>164</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>811026</v>
@@ -2189,14 +2639,14 @@
       <c r="G40" s="2" t="n">
         <v>4895000</v>
       </c>
-      <c r="H40" s="2" t="n">
-        <v>0.6421623470558473</v>
-      </c>
-      <c r="I40" s="2" t="n">
-        <v>0.6270552166591447</v>
-      </c>
-      <c r="J40" s="3" t="n">
-        <v>-0.01510713039670264</v>
+      <c r="H40" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="K40" s="2" t="n">
         <v>0.2316555269922879</v>
@@ -2213,7 +2663,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>51</v>
+        <v>168</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>168903</v>
@@ -2230,14 +2680,14 @@
       <c r="G41" s="2" t="n">
         <v>858000</v>
       </c>
-      <c r="H41" s="2" t="n">
-        <v>0.777223030057612</v>
-      </c>
-      <c r="I41" s="2" t="n">
-        <v>0.5681918336162546</v>
-      </c>
-      <c r="J41" s="3" t="n">
-        <v>-0.2090311964413574</v>
+      <c r="H41" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="K41" s="2" t="n">
         <v>0.2423285509325681</v>
@@ -2254,7 +2704,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1381333</v>
@@ -2271,14 +2721,14 @@
       <c r="G42" s="2" t="n">
         <v>6595000</v>
       </c>
-      <c r="H42" s="2" t="n">
-        <v>0.7708150813429596</v>
-      </c>
-      <c r="I42" s="2" t="n">
-        <v>0.6359291924342499</v>
-      </c>
-      <c r="J42" s="3" t="n">
-        <v>-0.1348858889087097</v>
+      <c r="H42" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="K42" s="2" t="n">
         <v>0.2822503064977523</v>
@@ -2295,7 +2745,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>53</v>
+        <v>176</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>10001740</v>
@@ -2312,14 +2762,14 @@
       <c r="G43" s="2" t="n">
         <v>27430000</v>
       </c>
-      <c r="H43" s="2" t="n">
-        <v>0.9705385095568312</v>
-      </c>
-      <c r="I43" s="2" t="n">
-        <v>0.9141594250778459</v>
-      </c>
-      <c r="J43" s="3" t="n">
-        <v>-0.05637908447898532</v>
+      <c r="H43" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="K43" s="2" t="n">
         <v>0.5863715776514041</v>
@@ -2336,7 +2786,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>54</v>
+        <v>180</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>687041</v>
@@ -2353,14 +2803,14 @@
       <c r="G44" s="2" t="n">
         <v>2991000</v>
       </c>
-      <c r="H44" s="2" t="n">
-        <v>1.282134972576639</v>
-      </c>
-      <c r="I44" s="2" t="n">
-        <v>1.071214291403136</v>
-      </c>
-      <c r="J44" s="3" t="n">
-        <v>-0.2109206811735029</v>
+      <c r="H44" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="K44" s="2" t="n">
         <v>0.3969041016753322</v>
@@ -2377,7 +2827,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>55</v>
+        <v>184</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1299737</v>
@@ -2394,14 +2844,14 @@
       <c r="G45" s="2" t="n">
         <v>8368000</v>
       </c>
-      <c r="H45" s="2" t="n">
-        <v>0.6618873820265287</v>
-      </c>
-      <c r="I45" s="2" t="n">
-        <v>0.6457100332432458</v>
-      </c>
-      <c r="J45" s="3" t="n">
-        <v>-0.01617734878328292</v>
+      <c r="H45" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="K45" s="2" t="n">
         <v>0.2090617661251407</v>
@@ -2418,7 +2868,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>56</v>
+        <v>188</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>78902</v>
@@ -2435,14 +2885,14 @@
       <c r="G46" s="2" t="n">
         <v>626000</v>
       </c>
-      <c r="H46" s="2" t="n">
-        <v>0.625471668199258</v>
-      </c>
-      <c r="I46" s="2" t="n">
-        <v>0.7139166666666666</v>
-      </c>
-      <c r="J46" s="2" t="n">
-        <v>0.08844499846740861</v>
+      <c r="H46" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="K46" s="2" t="n">
         <v>0.1396495575221239</v>
@@ -2459,7 +2909,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1016315</v>
@@ -2476,14 +2926,14 @@
       <c r="G47" s="2" t="n">
         <v>7160000</v>
       </c>
-      <c r="H47" s="2" t="n">
-        <v>0.4966040077594758</v>
-      </c>
-      <c r="I47" s="2" t="n">
-        <v>0.5690642800169383</v>
-      </c>
-      <c r="J47" s="2" t="n">
-        <v>0.07246027225746254</v>
+      <c r="H47" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="K47" s="2" t="n">
         <v>0.2072843157250663</v>
@@ -2500,7 +2950,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>58</v>
+        <v>196</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1184418</v>
@@ -2517,14 +2967,14 @@
       <c r="G48" s="2" t="n">
         <v>5768000</v>
       </c>
-      <c r="H48" s="2" t="n">
-        <v>0.7977130418442759</v>
-      </c>
-      <c r="I48" s="2" t="n">
-        <v>0.7966919005104195</v>
-      </c>
-      <c r="J48" s="3" t="n">
-        <v>-0.001021141333856446</v>
+      <c r="H48" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="K48" s="2" t="n">
         <v>0.2414715596330275</v>
@@ -2541,7 +2991,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>59</v>
+        <v>200</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1210273</v>
@@ -2558,14 +3008,14 @@
       <c r="G49" s="2" t="n">
         <v>1841000</v>
       </c>
-      <c r="H49" s="4" t="n">
-        <v>1.717854273653492</v>
-      </c>
-      <c r="I49" s="2" t="n">
-        <v>1.435220637102134</v>
-      </c>
-      <c r="J49" s="3" t="n">
-        <v>-0.282633636551358</v>
+      <c r="H49" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="K49" s="2" t="n">
         <v>0.6749988845510317</v>
@@ -2582,7 +3032,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>60</v>
+        <v>204</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>683993</v>
@@ -2599,14 +3049,14 @@
       <c r="G50" s="2" t="n">
         <v>587000</v>
       </c>
-      <c r="H50" s="2" t="n">
-        <v>1.712418415195616</v>
-      </c>
-      <c r="I50" s="4" t="n">
-        <v>1.516547655414694</v>
-      </c>
-      <c r="J50" s="3" t="n">
-        <v>-0.1958707597809219</v>
+      <c r="H50" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="K50" s="4" t="n">
         <v>1.506592511013216</v>
@@ -2623,7 +3073,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>61</v>
+        <v>208</v>
       </c>
       <c r="C51" s="4" t="n">
         <v>72351887</v>
@@ -2640,14 +3090,14 @@
       <c r="G51" s="4" t="n">
         <v>320897000</v>
       </c>
-      <c r="H51" s="2" t="n">
-        <v>0.8561744746006699</v>
-      </c>
-      <c r="I51" s="2" t="n">
-        <v>0.8167983814751401</v>
-      </c>
-      <c r="J51" s="3" t="n">
-        <v>-0.03937609312552981</v>
+      <c r="H51" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="K51" s="2" t="n">
         <v>0.2898446337076311</v>

--- a/consumption_tables/Total energy consumption._              Billion Btu/Fossil fuels, total consumption._                     Billion Btu.xlsx
+++ b/consumption_tables/Total energy consumption._              Billion Btu/Fossil fuels, total consumption._                     Billion Btu.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="216">
   <si>
     <t>StateCode</t>
   </si>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>ChangeConsumptionPerCapita</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>96.85661113232194%</t>
+  </si>
+  <si>
+    <t>96.50615995392738%</t>
+  </si>
+  <si>
+    <t>-0.3504511783945645%</t>
   </si>
   <si>
     <t>AL</t>
@@ -1013,7 +1025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1067,19 +1079,19 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1417626</v>
+        <v>565723</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1713999</v>
+        <v>598233</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1.20906289811276</v>
+        <v>1.057466286504173</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>4050000</v>
+        <v>553000</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4854000</v>
+        <v>738000</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>13</v>
@@ -1091,13 +1103,13 @@
         <v>15</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>0.3500311111111111</v>
+        <v>1.023007233273056</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>0.353110630407911</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>0.003079519296799893</v>
+        <v>0.8106138211382113</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>-0.2123934121348446</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1108,19 +1120,19 @@
         <v>16</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>713222</v>
+        <v>1417626</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>838827</v>
+        <v>1713999</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.176109261912841</v>
+        <v>1.20906289811276</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2357000</v>
+        <v>4050000</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2978000</v>
+        <v>4854000</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>17</v>
@@ -1132,13 +1144,13 @@
         <v>19</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>0.3025973695375477</v>
+        <v>0.3500311111111111</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>0.2816746138347884</v>
-      </c>
-      <c r="M3" s="3" t="n">
-        <v>-0.02092275570275931</v>
+        <v>0.353110630407911</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>0.003079519296799893</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1149,19 +1161,19 @@
         <v>20</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>821494</v>
+        <v>713222</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1258052</v>
+        <v>838827</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1.531419584318327</v>
+        <v>1.176109261912841</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3684000</v>
+        <v>2357000</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6818000</v>
+        <v>2978000</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>21</v>
@@ -1173,13 +1185,13 @@
         <v>23</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>0.2229896851248643</v>
+        <v>0.3025973695375477</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>0.1845192138457026</v>
+        <v>0.2816746138347884</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>-0.03847047127916173</v>
+        <v>-0.02092275570275931</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1190,19 +1202,19 @@
         <v>24</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>5692736</v>
+        <v>821494</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>5774857</v>
+        <v>1258052</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>1.014425576734983</v>
+        <v>1.531419584318327</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>29960000</v>
+        <v>3684000</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>38994000</v>
+        <v>6818000</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>25</v>
@@ -1214,13 +1226,13 @@
         <v>27</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>0.190011214953271</v>
+        <v>0.2229896851248643</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>0.1480960404164743</v>
+        <v>0.1845192138457026</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>-0.04191517453679669</v>
+        <v>-0.03847047127916173</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1231,19 +1243,19 @@
         <v>28</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>896246</v>
+        <v>5692736</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1298287</v>
+        <v>5774857</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>1.448583313063601</v>
+        <v>1.014425576734983</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3308000</v>
+        <v>29960000</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>5449000</v>
+        <v>38994000</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>29</v>
@@ -1255,13 +1267,13 @@
         <v>31</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>0.2709328899637243</v>
+        <v>0.190011214953271</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>0.2382615158744724</v>
+        <v>0.1480960404164743</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>-0.03267137408925189</v>
+        <v>-0.04191517453679669</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1272,19 +1284,19 @@
         <v>32</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>586890</v>
+        <v>896246</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>582088</v>
+        <v>1298287</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.9918178875087325</v>
+        <v>1.448583313063601</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3292000</v>
+        <v>3308000</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3585000</v>
+        <v>5449000</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>33</v>
@@ -1296,13 +1308,13 @@
         <v>35</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>0.1782776427703524</v>
+        <v>0.2709328899637243</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>0.1623676429567643</v>
+        <v>0.2382615158744724</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>-0.01590999981358809</v>
+        <v>-0.03267137408925189</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1313,19 +1325,19 @@
         <v>36</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>234646</v>
+        <v>586890</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>217320</v>
+        <v>582088</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.9261611107796425</v>
+        <v>0.9918178875087325</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>670000</v>
+        <v>3292000</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>944000</v>
+        <v>3585000</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>37</v>
@@ -1337,13 +1349,13 @@
         <v>39</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>0.3502179104477612</v>
+        <v>0.1782776427703524</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>0.2302118644067797</v>
+        <v>0.1623676429567643</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v>-0.1200060460409815</v>
+        <v>-0.01590999981358809</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1354,19 +1366,19 @@
         <v>40</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>2542951</v>
+        <v>234646</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>3454643</v>
+        <v>217320</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>1.358517328882861</v>
+        <v>0.9261611107796425</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>13033000</v>
+        <v>670000</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>20245000</v>
+        <v>944000</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>41</v>
@@ -1378,13 +1390,13 @@
         <v>43</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>0.1951163201104888</v>
+        <v>0.3502179104477612</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>0.1706417880958261</v>
+        <v>0.2302118644067797</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>-0.02447453201466263</v>
+        <v>-0.1200060460409815</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1395,19 +1407,19 @@
         <v>44</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>1849009</v>
+        <v>2542951</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1986190</v>
+        <v>3454643</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>1.074191634545857</v>
+        <v>1.358517328882861</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>6513000</v>
+        <v>13033000</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>10199000</v>
+        <v>20245000</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>45</v>
@@ -1419,13 +1431,13 @@
         <v>47</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>0.2838951328113005</v>
+        <v>0.1951163201104888</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>0.1947436023139524</v>
+        <v>0.1706417880958261</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>-0.08915153049734811</v>
+        <v>-0.02447453201466263</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1436,19 +1448,19 @@
         <v>48</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>293484</v>
+        <v>1849009</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>253588</v>
+        <v>1986190</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.864060732441973</v>
+        <v>1.074191634545857</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1113000</v>
+        <v>6513000</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1425000</v>
+        <v>10199000</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>49</v>
@@ -1460,13 +1472,13 @@
         <v>51</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>0.2636873315363881</v>
+        <v>0.2838951328113005</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>0.1779564912280702</v>
+        <v>0.1947436023139524</v>
       </c>
       <c r="M11" s="3" t="n">
-        <v>-0.08573084030831796</v>
+        <v>-0.08915153049734811</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1477,19 +1489,19 @@
         <v>52</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>812045</v>
+        <v>293484</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1068909</v>
+        <v>253588</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>1.316317445461766</v>
+        <v>0.864060732441973</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2781000</v>
+        <v>1113000</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3122000</v>
+        <v>1425000</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>53</v>
@@ -1501,13 +1513,13 @@
         <v>55</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>0.291997482919813</v>
+        <v>0.2636873315363881</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>0.3423795643818066</v>
-      </c>
-      <c r="M12" s="2" t="n">
-        <v>0.05038208146199352</v>
+        <v>0.1779564912280702</v>
+      </c>
+      <c r="M12" s="3" t="n">
+        <v>-0.08573084030831796</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1518,19 +1530,19 @@
         <v>56</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>177009</v>
+        <v>812045</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>284344</v>
-      </c>
-      <c r="E13" s="4" t="n">
-        <v>1.606381596416002</v>
+        <v>1068909</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>1.316317445461766</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1012000</v>
+        <v>2781000</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1653000</v>
+        <v>3122000</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>57</v>
@@ -1542,13 +1554,13 @@
         <v>59</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>0.1749100790513834</v>
+        <v>0.291997482919813</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>0.1720169388989716</v>
-      </c>
-      <c r="M13" s="3" t="n">
-        <v>-0.002893140152411822</v>
+        <v>0.3423795643818066</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>0.05038208146199352</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1559,19 +1571,19 @@
         <v>60</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>2801997</v>
+        <v>177009</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>3134555</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>1.11868606568815</v>
+        <v>284344</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>1.606381596416002</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>11453000</v>
+        <v>1012000</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>12839000</v>
+        <v>1653000</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>61</v>
@@ -1583,13 +1595,13 @@
         <v>63</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>0.2446517942897058</v>
+        <v>0.1749100790513834</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>0.2441432354544746</v>
+        <v>0.1720169388989716</v>
       </c>
       <c r="M14" s="3" t="n">
-        <v>-0.0005085588352311265</v>
+        <v>-0.002893140152411822</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1600,19 +1612,19 @@
         <v>64</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>2634344</v>
+        <v>2801997</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>2521146</v>
+        <v>3134555</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.957029909533455</v>
+        <v>1.11868606568815</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>5558000</v>
+        <v>11453000</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>6613000</v>
+        <v>12839000</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>65</v>
@@ -1624,13 +1636,13 @@
         <v>67</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>0.4739733717164448</v>
+        <v>0.2446517942897058</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>0.3812408891577196</v>
+        <v>0.2441432354544746</v>
       </c>
       <c r="M15" s="3" t="n">
-        <v>-0.09273248255872513</v>
+        <v>-0.0005085588352311265</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1641,19 +1653,19 @@
         <v>68</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>1025133</v>
+        <v>2634344</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>878500</v>
+        <v>2521146</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.8569619746901134</v>
+        <v>0.957029909533455</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2481000</v>
+        <v>5558000</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2907000</v>
+        <v>6613000</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>69</v>
@@ -1665,13 +1677,13 @@
         <v>71</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>0.4131934703748488</v>
+        <v>0.4739733717164448</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>0.3022015823873409</v>
+        <v>0.3812408891577196</v>
       </c>
       <c r="M16" s="3" t="n">
-        <v>-0.1109918879875079</v>
+        <v>-0.09273248255872513</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1682,19 +1694,19 @@
         <v>72</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>1497217</v>
+        <v>1025133</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>1661664</v>
+        <v>878500</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>1.10983511408166</v>
+        <v>0.8569619746901134</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>3694000</v>
+        <v>2481000</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4425000</v>
+        <v>2907000</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>73</v>
@@ -1706,13 +1718,13 @@
         <v>75</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>0.4053105035192204</v>
+        <v>0.4131934703748488</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>0.3755172881355932</v>
+        <v>0.3022015823873409</v>
       </c>
       <c r="M17" s="3" t="n">
-        <v>-0.02979321538362717</v>
+        <v>-0.1109918879875079</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1723,19 +1735,19 @@
         <v>76</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>3480395</v>
+        <v>1497217</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>3844022</v>
+        <v>1661664</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>1.104478658313209</v>
+        <v>1.10983511408166</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>4222000</v>
+        <v>3694000</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>4669000</v>
+        <v>4425000</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>77</v>
@@ -1747,13 +1759,13 @@
         <v>79</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>0.8243474656560872</v>
+        <v>0.4053105035192204</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>0.8233073463268366</v>
+        <v>0.3755172881355932</v>
       </c>
       <c r="M18" s="3" t="n">
-        <v>-0.001040119329250633</v>
+        <v>-0.02979321538362717</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1764,19 +1776,19 @@
         <v>80</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>1193833</v>
+        <v>3480395</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>1042592</v>
+        <v>3844022</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0.8733147768573997</v>
+        <v>1.104478658313209</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>6023000</v>
+        <v>4222000</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>6784000</v>
+        <v>4669000</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>81</v>
@@ -1788,13 +1800,13 @@
         <v>83</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>0.198212352648182</v>
+        <v>0.8243474656560872</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>0.1536839622641509</v>
+        <v>0.8233073463268366</v>
       </c>
       <c r="M19" s="3" t="n">
-        <v>-0.04452839038403103</v>
+        <v>-0.001040119329250633</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1805,19 +1817,19 @@
         <v>84</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>972926</v>
+        <v>1193833</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>865593</v>
+        <v>1042592</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0.8896802017830749</v>
+        <v>0.8733147768573997</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>4800000</v>
+        <v>6023000</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>5995000</v>
+        <v>6784000</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>85</v>
@@ -1829,13 +1841,13 @@
         <v>87</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>0.2026929166666667</v>
+        <v>0.198212352648182</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>0.1443858215179316</v>
+        <v>0.1536839622641509</v>
       </c>
       <c r="M20" s="3" t="n">
-        <v>-0.05830709514873506</v>
+        <v>-0.04452839038403103</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1846,19 +1858,19 @@
         <v>88</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>262470</v>
+        <v>972926</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>253292</v>
+        <v>865593</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0.9650321941555225</v>
+        <v>0.8896802017830749</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1232000</v>
+        <v>4800000</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1329000</v>
+        <v>5995000</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>89</v>
@@ -1870,13 +1882,13 @@
         <v>91</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>0.2130438311688312</v>
+        <v>0.2026929166666667</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>0.1905884123401053</v>
+        <v>0.1443858215179316</v>
       </c>
       <c r="M21" s="3" t="n">
-        <v>-0.02245541882872581</v>
+        <v>-0.05830709514873506</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1887,19 +1899,19 @@
         <v>92</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>2539936</v>
+        <v>262470</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>2333121</v>
+        <v>253292</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>0.9185747199929447</v>
+        <v>0.9650321941555225</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>9311000</v>
+        <v>1232000</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>9918000</v>
+        <v>1329000</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>93</v>
@@ -1911,13 +1923,13 @@
         <v>95</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>0.2727887444957577</v>
+        <v>0.2130438311688312</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>0.2352410768300061</v>
+        <v>0.1905884123401053</v>
       </c>
       <c r="M22" s="3" t="n">
-        <v>-0.03754766766575163</v>
+        <v>-0.02245541882872581</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1928,19 +1940,19 @@
         <v>96</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>1120416</v>
+        <v>2539936</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>1288135</v>
+        <v>2333121</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>1.149693506697512</v>
+        <v>0.9185747199929447</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>4390000</v>
+        <v>9311000</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>5482000</v>
+        <v>9918000</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>97</v>
@@ -1952,13 +1964,13 @@
         <v>99</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>0.2552200455580866</v>
+        <v>0.2727887444957577</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>0.2349753739511127</v>
+        <v>0.2352410768300061</v>
       </c>
       <c r="M23" s="3" t="n">
-        <v>-0.02024467160697385</v>
+        <v>-0.03754766766575163</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1969,19 +1981,19 @@
         <v>100</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>1367658</v>
+        <v>1120416</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1586705</v>
+        <v>1288135</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>1.16016211655253</v>
+        <v>1.149693506697512</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>5129000</v>
+        <v>4390000</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>6076000</v>
+        <v>5482000</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>101</v>
@@ -1993,13 +2005,13 @@
         <v>103</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>0.2666519789432638</v>
+        <v>0.2552200455580866</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>0.261143021724819</v>
+        <v>0.2349753739511127</v>
       </c>
       <c r="M24" s="3" t="n">
-        <v>-0.005508957218444854</v>
+        <v>-0.02024467160697385</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2010,19 +2022,19 @@
         <v>104</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>740422</v>
+        <v>1367658</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>1036285</v>
+        <v>1586705</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>1.399586992282779</v>
+        <v>1.16016211655253</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>2579000</v>
+        <v>5129000</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2989000</v>
+        <v>6076000</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>105</v>
@@ -2034,13 +2046,13 @@
         <v>107</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>0.2870965490500194</v>
+        <v>0.2666519789432638</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>0.3466995650719304</v>
-      </c>
-      <c r="M25" s="2" t="n">
-        <v>0.05960301602191098</v>
+        <v>0.261143021724819</v>
+      </c>
+      <c r="M25" s="3" t="n">
+        <v>-0.005508957218444854</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2051,19 +2063,19 @@
         <v>108</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>355744</v>
+        <v>740422</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>419661</v>
+        <v>1036285</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>1.179671336691553</v>
+        <v>1.399586992282779</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>800000</v>
+        <v>2579000</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1032000</v>
+        <v>2989000</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>109</v>
@@ -2075,13 +2087,13 @@
         <v>111</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>0.44468</v>
+        <v>0.2870965490500194</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>0.4066482558139535</v>
-      </c>
-      <c r="M26" s="3" t="n">
-        <v>-0.03803174418604655</v>
+        <v>0.3466995650719304</v>
+      </c>
+      <c r="M26" s="2" t="n">
+        <v>0.05960301602191098</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2092,19 +2104,19 @@
         <v>112</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>1450928</v>
+        <v>355744</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>1713810</v>
+        <v>419661</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>1.181181974570757</v>
+        <v>1.179671336691553</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>6664000</v>
+        <v>800000</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>10035000</v>
+        <v>1032000</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>113</v>
@@ -2116,13 +2128,13 @@
         <v>115</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>0.2177262905162065</v>
+        <v>0.44468</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>0.1707832585949178</v>
+        <v>0.4066482558139535</v>
       </c>
       <c r="M27" s="3" t="n">
-        <v>-0.04694303192128871</v>
+        <v>-0.03803174418604655</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2133,19 +2145,19 @@
         <v>116</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>514687</v>
+        <v>1450928</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>700668</v>
+        <v>1713810</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>1.361347770586784</v>
+        <v>1.181181974570757</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>638000</v>
+        <v>6664000</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>757000</v>
+        <v>10035000</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>117</v>
@@ -2157,13 +2169,13 @@
         <v>119</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>0.8067194357366771</v>
+        <v>0.2177262905162065</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>0.9255852047556142</v>
-      </c>
-      <c r="M28" s="4" t="n">
-        <v>0.1188657690189371</v>
+        <v>0.1707832585949178</v>
+      </c>
+      <c r="M28" s="3" t="n">
+        <v>-0.04694303192128871</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2174,19 +2186,19 @@
         <v>120</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>454096</v>
+        <v>514687</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>672786</v>
+        <v>700668</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>1.481594200345302</v>
+        <v>1.361347770586784</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1221000</v>
+        <v>638000</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2884000</v>
+        <v>757000</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>121</v>
@@ -2198,13 +2210,13 @@
         <v>123</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>0.3719049959049959</v>
+        <v>0.8067194357366771</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>0.2332822468793343</v>
-      </c>
-      <c r="M29" s="3" t="n">
-        <v>-0.1386227490256617</v>
+        <v>0.9255852047556142</v>
+      </c>
+      <c r="M29" s="4" t="n">
+        <v>0.1188657690189371</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2215,19 +2227,19 @@
         <v>124</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>204880</v>
+        <v>454096</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>231781</v>
+        <v>672786</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>1.131301249511909</v>
+        <v>1.481594200345302</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1112000</v>
+        <v>1221000</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1330000</v>
+        <v>2884000</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>125</v>
@@ -2239,13 +2251,13 @@
         <v>127</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>0.1842446043165468</v>
+        <v>0.3719049959049959</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>0.1742714285714286</v>
+        <v>0.2332822468793343</v>
       </c>
       <c r="M30" s="3" t="n">
-        <v>-0.00997317574511819</v>
+        <v>-0.1386227490256617</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2256,19 +2268,19 @@
         <v>128</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>1656883</v>
+        <v>204880</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>1781715</v>
+        <v>231781</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>1.075341469494225</v>
+        <v>1.131301249511909</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>7763000</v>
+        <v>1112000</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>8935000</v>
+        <v>1330000</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>129</v>
@@ -2280,13 +2292,13 @@
         <v>131</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>0.213433337627206</v>
+        <v>0.1842446043165468</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>0.1994085058757694</v>
+        <v>0.1742714285714286</v>
       </c>
       <c r="M31" s="3" t="n">
-        <v>-0.01402483175143654</v>
+        <v>-0.00997317574511819</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2297,19 +2309,19 @@
         <v>132</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>738565</v>
+        <v>1656883</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>713851</v>
+        <v>1781715</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>0.9665378131917977</v>
+        <v>1.075341469494225</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1522000</v>
+        <v>7763000</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>2080000</v>
+        <v>8935000</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>133</v>
@@ -2321,13 +2333,13 @@
         <v>135</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>0.4852595269382391</v>
+        <v>0.213433337627206</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>0.3431975961538462</v>
+        <v>0.1994085058757694</v>
       </c>
       <c r="M32" s="3" t="n">
-        <v>-0.142061930784393</v>
+        <v>-0.01402483175143654</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2338,19 +2350,19 @@
         <v>136</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>401019</v>
+        <v>738565</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>569712</v>
+        <v>713851</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>1.420660866442737</v>
+        <v>0.9665378131917977</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1582000</v>
+        <v>1522000</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>1894000</v>
+        <v>2080000</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>137</v>
@@ -2362,13 +2374,13 @@
         <v>139</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>0.2534886219974716</v>
+        <v>0.4852595269382391</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>0.3007983104540655</v>
-      </c>
-      <c r="M33" s="2" t="n">
-        <v>0.04730968845659389</v>
+        <v>0.3431975961538462</v>
+      </c>
+      <c r="M33" s="3" t="n">
+        <v>-0.142061930784393</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2379,19 +2391,19 @@
         <v>140</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>3030393</v>
+        <v>401019</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>2739962</v>
+        <v>569712</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>0.9041606154713266</v>
+        <v>1.420660866442737</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>18021000</v>
+        <v>1582000</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>19747000</v>
+        <v>1894000</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>141</v>
@@ -2403,13 +2415,13 @@
         <v>143</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>0.1681589811886133</v>
+        <v>0.2534886219974716</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>0.1387533296196891</v>
-      </c>
-      <c r="M34" s="3" t="n">
-        <v>-0.02940565156892422</v>
+        <v>0.3007983104540655</v>
+      </c>
+      <c r="M34" s="2" t="n">
+        <v>0.04730968845659389</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2420,19 +2432,19 @@
         <v>144</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>3289505</v>
+        <v>3030393</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>3029599</v>
+        <v>2739962</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>0.9209893281815957</v>
+        <v>0.9041606154713266</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>10864000</v>
+        <v>18021000</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>11605000</v>
+        <v>19747000</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>145</v>
@@ -2444,13 +2456,13 @@
         <v>147</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>0.3027894882179676</v>
+        <v>0.1681589811886133</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>0.2610598018095648</v>
+        <v>0.1387533296196891</v>
       </c>
       <c r="M35" s="3" t="n">
-        <v>-0.04172968640840274</v>
+        <v>-0.02940565156892422</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2461,19 +2473,19 @@
         <v>148</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>1337780</v>
+        <v>3289505</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>1526722</v>
+        <v>3029599</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>1.141235479675283</v>
+        <v>0.9209893281815957</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>3149000</v>
+        <v>10864000</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>3907000</v>
+        <v>11605000</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>149</v>
@@ -2485,13 +2497,13 @@
         <v>151</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>0.4248269291838679</v>
+        <v>0.3027894882179676</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>0.3907658049654467</v>
+        <v>0.2610598018095648</v>
       </c>
       <c r="M36" s="3" t="n">
-        <v>-0.03406112421842122</v>
+        <v>-0.04172968640840274</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2502,19 +2514,19 @@
         <v>152</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>473649</v>
+        <v>1337780</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>597238</v>
+        <v>1526722</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>1.260929506871122</v>
+        <v>1.141235479675283</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>2860000</v>
+        <v>3149000</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>4025000</v>
+        <v>3907000</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>153</v>
@@ -2526,13 +2538,13 @@
         <v>155</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>0.1656115384615384</v>
+        <v>0.4248269291838679</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>0.1483821118012422</v>
+        <v>0.3907658049654467</v>
       </c>
       <c r="M37" s="3" t="n">
-        <v>-0.01722942666029623</v>
+        <v>-0.03406112421842122</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2543,19 +2555,19 @@
         <v>156</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>3461622</v>
+        <v>473649</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>3397577</v>
+        <v>597238</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>0.9814985576125874</v>
+        <v>1.260929506871122</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>11903000</v>
+        <v>2860000</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>12792000</v>
+        <v>4025000</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>157</v>
@@ -2567,13 +2579,13 @@
         <v>159</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>0.2908192892548097</v>
+        <v>0.1656115384615384</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>0.2656017041901188</v>
+        <v>0.1483821118012422</v>
       </c>
       <c r="M38" s="3" t="n">
-        <v>-0.02521758506469091</v>
+        <v>-0.01722942666029623</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2584,19 +2596,19 @@
         <v>160</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>145059</v>
+        <v>3461622</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>183599</v>
+        <v>3397577</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>1.265684997139095</v>
+        <v>0.9814985576125874</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>1006000</v>
+        <v>11903000</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>1056000</v>
+        <v>12792000</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>161</v>
@@ -2604,17 +2616,17 @@
       <c r="I39" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="J39" s="4" t="s">
+      <c r="J39" s="2" t="s">
         <v>163</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>0.1441938369781312</v>
+        <v>0.2908192892548097</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>0.1738626893939394</v>
-      </c>
-      <c r="M39" s="2" t="n">
-        <v>0.02966885241580819</v>
+        <v>0.2656017041901188</v>
+      </c>
+      <c r="M39" s="3" t="n">
+        <v>-0.02521758506469091</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2625,19 +2637,19 @@
         <v>164</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>811026</v>
+        <v>145059</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>1033693</v>
+        <v>183599</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>1.274549767824953</v>
+        <v>1.265684997139095</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>3501000</v>
+        <v>1006000</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>4895000</v>
+        <v>1056000</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>165</v>
@@ -2645,17 +2657,17 @@
       <c r="I40" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="J40" s="4" t="s">
         <v>167</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>0.2316555269922879</v>
+        <v>0.1441938369781312</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>0.2111732379979571</v>
-      </c>
-      <c r="M40" s="3" t="n">
-        <v>-0.02048228899433083</v>
+        <v>0.1738626893939394</v>
+      </c>
+      <c r="M40" s="2" t="n">
+        <v>0.02966885241580819</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2666,19 +2678,19 @@
         <v>168</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>168903</v>
+        <v>811026</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>217901</v>
+        <v>1033693</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>1.290095498599788</v>
+        <v>1.274549767824953</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>697000</v>
+        <v>3501000</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>858000</v>
+        <v>4895000</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>169</v>
@@ -2690,13 +2702,13 @@
         <v>171</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>0.2423285509325681</v>
+        <v>0.2316555269922879</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>0.2539638694638695</v>
-      </c>
-      <c r="M41" s="2" t="n">
-        <v>0.01163531853130131</v>
+        <v>0.2111732379979571</v>
+      </c>
+      <c r="M41" s="3" t="n">
+        <v>-0.02048228899433083</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2707,19 +2719,19 @@
         <v>172</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>1381333</v>
+        <v>168903</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>1378346</v>
+        <v>217901</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>0.9978375960032809</v>
+        <v>1.290095498599788</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>4894000</v>
+        <v>697000</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>6595000</v>
+        <v>858000</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>173</v>
@@ -2731,13 +2743,13 @@
         <v>175</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>0.2822503064977523</v>
+        <v>0.2423285509325681</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>0.2089986353297953</v>
-      </c>
-      <c r="M42" s="3" t="n">
-        <v>-0.07325167116795706</v>
+        <v>0.2539638694638695</v>
+      </c>
+      <c r="M42" s="2" t="n">
+        <v>0.01163531853130131</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2748,19 +2760,19 @@
         <v>176</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>10001740</v>
+        <v>1381333</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>11790469</v>
+        <v>1378346</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>1.178841781530014</v>
+        <v>0.9978375960032809</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>17057000</v>
+        <v>4894000</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>27430000</v>
+        <v>6595000</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>177</v>
@@ -2772,36 +2784,36 @@
         <v>179</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>0.5863715776514041</v>
+        <v>0.2822503064977523</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>0.4298384615384616</v>
+        <v>0.2089986353297953</v>
       </c>
       <c r="M43" s="3" t="n">
-        <v>-0.1565331161129426</v>
+        <v>-0.07325167116795706</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>687041</v>
+        <v>10001740</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>847353</v>
+        <v>11790469</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>1.23333687509188</v>
+        <v>1.178841781530014</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>1731000</v>
+        <v>17057000</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>2991000</v>
+        <v>27430000</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>181</v>
@@ -2813,13 +2825,13 @@
         <v>183</v>
       </c>
       <c r="K44" s="2" t="n">
-        <v>0.3969041016753322</v>
+        <v>0.5863715776514041</v>
       </c>
       <c r="L44" s="2" t="n">
-        <v>0.2833009027081244</v>
+        <v>0.4298384615384616</v>
       </c>
       <c r="M44" s="3" t="n">
-        <v>-0.1136031989672078</v>
+        <v>-0.1565331161129426</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2830,19 +2842,19 @@
         <v>184</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>1299737</v>
+        <v>687041</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>1528847</v>
+        <v>847353</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>1.17627412314953</v>
+        <v>1.23333687509188</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>6217000</v>
+        <v>1731000</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>8368000</v>
+        <v>2991000</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>185</v>
@@ -2854,13 +2866,13 @@
         <v>187</v>
       </c>
       <c r="K45" s="2" t="n">
-        <v>0.2090617661251407</v>
+        <v>0.3969041016753322</v>
       </c>
       <c r="L45" s="2" t="n">
-        <v>0.1827016013384321</v>
+        <v>0.2833009027081244</v>
       </c>
       <c r="M45" s="3" t="n">
-        <v>-0.02636016478670861</v>
+        <v>-0.1136031989672078</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2871,19 +2883,19 @@
         <v>188</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>78902</v>
+        <v>1299737</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>94237</v>
+        <v>1528847</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>1.19435502268637</v>
+        <v>1.17627412314953</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>565000</v>
+        <v>6217000</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>626000</v>
+        <v>8368000</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>189</v>
@@ -2895,13 +2907,13 @@
         <v>191</v>
       </c>
       <c r="K46" s="2" t="n">
-        <v>0.1396495575221239</v>
+        <v>0.2090617661251407</v>
       </c>
       <c r="L46" s="2" t="n">
-        <v>0.150538338658147</v>
-      </c>
-      <c r="M46" s="2" t="n">
-        <v>0.01088878113602307</v>
+        <v>0.1827016013384321</v>
+      </c>
+      <c r="M46" s="3" t="n">
+        <v>-0.02636016478670861</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2912,19 +2924,19 @@
         <v>192</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>1016315</v>
+        <v>78902</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>1131524</v>
+        <v>94237</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>1.113359539119269</v>
+        <v>1.19435502268637</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>4903000</v>
+        <v>565000</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>7160000</v>
+        <v>626000</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>193</v>
@@ -2936,13 +2948,13 @@
         <v>195</v>
       </c>
       <c r="K47" s="2" t="n">
-        <v>0.2072843157250663</v>
+        <v>0.1396495575221239</v>
       </c>
       <c r="L47" s="2" t="n">
-        <v>0.1580340782122905</v>
-      </c>
-      <c r="M47" s="3" t="n">
-        <v>-0.04925023751277577</v>
+        <v>0.150538338658147</v>
+      </c>
+      <c r="M47" s="2" t="n">
+        <v>0.01088878113602307</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2953,19 +2965,19 @@
         <v>196</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>1184418</v>
+        <v>1016315</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>1415073</v>
+        <v>1131524</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>1.194741214672523</v>
+        <v>1.113359539119269</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>4905000</v>
+        <v>4903000</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>5768000</v>
+        <v>7160000</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>197</v>
@@ -2977,13 +2989,13 @@
         <v>199</v>
       </c>
       <c r="K48" s="2" t="n">
-        <v>0.2414715596330275</v>
+        <v>0.2072843157250663</v>
       </c>
       <c r="L48" s="2" t="n">
-        <v>0.2453316574202496</v>
-      </c>
-      <c r="M48" s="2" t="n">
-        <v>0.003860097787222128</v>
+        <v>0.1580340782122905</v>
+      </c>
+      <c r="M48" s="3" t="n">
+        <v>-0.04925023751277577</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2994,21 +3006,21 @@
         <v>200</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>1210273</v>
+        <v>1184418</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>1112174</v>
+        <v>1415073</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>0.9189447339567188</v>
+        <v>1.194741214672523</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>1793000</v>
+        <v>4905000</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>1841000</v>
-      </c>
-      <c r="H49" s="4" t="s">
+        <v>5768000</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>201</v>
       </c>
       <c r="I49" s="2" t="s">
@@ -3018,94 +3030,135 @@
         <v>203</v>
       </c>
       <c r="K49" s="2" t="n">
-        <v>0.6749988845510317</v>
+        <v>0.2414715596330275</v>
       </c>
       <c r="L49" s="2" t="n">
-        <v>0.6041140684410646</v>
-      </c>
-      <c r="M49" s="3" t="n">
-        <v>-0.07088481610996711</v>
+        <v>0.2453316574202496</v>
+      </c>
+      <c r="M49" s="2" t="n">
+        <v>0.003860097787222128</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="2" t="s">
         <v>204</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>683993</v>
+        <v>1210273</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>794307</v>
+        <v>1112174</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>1.161279428298243</v>
+        <v>0.9189447339567188</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>454000</v>
+        <v>1793000</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>587000</v>
-      </c>
-      <c r="H50" s="2" t="s">
+        <v>1841000</v>
+      </c>
+      <c r="H50" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="I50" s="2" t="s">
         <v>206</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="K50" s="4" t="n">
-        <v>1.506592511013216</v>
-      </c>
-      <c r="L50" s="4" t="n">
-        <v>1.353163543441227</v>
+      <c r="K50" s="2" t="n">
+        <v>0.6749988845510317</v>
+      </c>
+      <c r="L50" s="2" t="n">
+        <v>0.6041140684410646</v>
       </c>
       <c r="M50" s="3" t="n">
-        <v>-0.1534289675719893</v>
+        <v>-0.07088481610996711</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C51" s="4" t="n">
-        <v>72351887</v>
-      </c>
-      <c r="D51" s="4" t="n">
-        <v>79434479</v>
+      <c r="C51" s="2" t="n">
+        <v>683993</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>794307</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>1.097890909189418</v>
-      </c>
-      <c r="F51" s="4" t="n">
-        <v>249623000</v>
-      </c>
-      <c r="G51" s="4" t="n">
-        <v>320897000</v>
+        <v>1.161279428298243</v>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>454000</v>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>587000</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="I51" s="4" t="s">
         <v>210</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="K51" s="2" t="n">
+      <c r="K51" s="4" t="n">
+        <v>1.506592511013216</v>
+      </c>
+      <c r="L51" s="4" t="n">
+        <v>1.353163543441227</v>
+      </c>
+      <c r="M51" s="3" t="n">
+        <v>-0.1534289675719893</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C52" s="4" t="n">
+        <v>72351887</v>
+      </c>
+      <c r="D52" s="4" t="n">
+        <v>79434479</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>1.097890909189418</v>
+      </c>
+      <c r="F52" s="4" t="n">
+        <v>249623000</v>
+      </c>
+      <c r="G52" s="4" t="n">
+        <v>320897000</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="K52" s="2" t="n">
         <v>0.2898446337076311</v>
       </c>
-      <c r="L51" s="2" t="n">
+      <c r="L52" s="2" t="n">
         <v>0.2475388644954612</v>
       </c>
-      <c r="M51" s="3" t="n">
+      <c r="M52" s="3" t="n">
         <v>-0.04230576921216991</v>
       </c>
     </row>
